--- a/Base de données/Dictionnaire de donnée.xlsx
+++ b/Base de données/Dictionnaire de donnée.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="185" documentId="280329F04869320F34D7F236CD20DF834C36534D" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{6BCADB33-9E1D-47E0-8F38-C11ADD932B9B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E41E7C-89C2-4E71-AC5F-B1B3536B62C8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="43">
   <si>
     <t>Nom de la donnée</t>
   </si>
@@ -118,9 +118,6 @@
     <t>Prix du véhicule</t>
   </si>
   <si>
-    <t>Immatriculation du véhicule</t>
-  </si>
-  <si>
     <t>Modèle du véhicule</t>
   </si>
   <si>
@@ -143,12 +140,6 @@
   </si>
   <si>
     <t>Boite de vitesse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kilométrage </t>
-  </si>
-  <si>
-    <t>Etat</t>
   </si>
   <si>
     <t>Date de départ</t>
@@ -164,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,23 +530,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -593,7 +584,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -609,7 +600,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -627,7 +618,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -645,7 +636,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -663,7 +654,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -681,7 +672,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -699,7 +690,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -717,7 +708,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -735,7 +726,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -751,7 +742,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -767,7 +758,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -783,7 +774,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -799,7 +790,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>16</v>
@@ -813,7 +804,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
@@ -829,7 +820,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -839,7 +830,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -849,7 +840,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
@@ -865,7 +856,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -883,7 +874,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -901,7 +892,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
@@ -919,7 +910,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -937,7 +928,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -955,7 +946,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
@@ -973,7 +964,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -991,7 +982,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
@@ -1007,7 +998,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
@@ -1023,7 +1014,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
@@ -1039,7 +1030,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
@@ -1055,7 +1046,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
@@ -1071,7 +1062,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
@@ -1087,7 +1078,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1097,7 +1088,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1107,7 +1098,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1117,25 +1108,19 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>16</v>
-      </c>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="D36" s="6"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>16</v>
@@ -1149,9 +1134,9 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>22</v>
@@ -1165,9 +1150,9 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>13</v>
@@ -1181,7 +1166,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>31</v>
       </c>
@@ -1197,9 +1182,9 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>16</v>
@@ -1213,9 +1198,9 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>16</v>
@@ -1229,9 +1214,9 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>16</v>
@@ -1245,9 +1230,9 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>13</v>
@@ -1261,9 +1246,9 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>13</v>
@@ -1277,41 +1262,29 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>16</v>
-      </c>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="D46" s="5"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>13</v>
-      </c>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="D47" s="5"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>22</v>
@@ -1325,9 +1298,9 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>22</v>
@@ -1341,7 +1314,7 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1351,9 +1324,9 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>16</v>
@@ -1367,7 +1340,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1377,7 +1350,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1387,7 +1360,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1397,7 +1370,7 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1407,7 +1380,7 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1417,7 +1390,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1427,7 +1400,7 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1437,7 +1410,7 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
